--- a/Hashing.xlsx
+++ b/Hashing.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">valid sudoku</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/fraction/</t>
   </si>
 </sst>
 </file>
@@ -133,10 +139,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -154,9 +160,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/valid-sudoku/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/fraction/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Hashing.xlsx
+++ b/Hashing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">valid sudoku</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/fraction/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points on line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/points-on-the-straight-line/</t>
   </si>
 </sst>
 </file>
@@ -139,10 +145,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -168,10 +174,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/valid-sudoku/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/fraction/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/points-on-the-straight-line/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Hashing.xlsx
+++ b/Hashing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">valid sudoku</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/points-on-the-straight-line/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/anagrams/</t>
   </si>
 </sst>
 </file>
@@ -145,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -182,11 +188,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/valid-sudoku/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/fraction/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/points-on-the-straight-line/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/anagrams/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
